--- a/xlsx/美国交通部_intext.xlsx
+++ b/xlsx/美国交通部_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>美国交通部</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国交通部</t>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国交通部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>公共運輸</t>
+    <t>公共运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%B7%9A</t>
   </si>
   <si>
-    <t>管線</t>
+    <t>管线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>基礎建設</t>
+    <t>基础建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2</t>
   </si>
   <si>
-    <t>國防</t>
+    <t>国防</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Maritime_Administration</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>臺灣裔美國人</t>
+    <t>台湾裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E5%B0%8F%E8%98%AD</t>
   </si>
   <si>
-    <t>趙小蘭</t>
+    <t>赵小兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%90%B5%E8%B7%AF%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦鐵路管理局</t>
+    <t>联邦铁路管理局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federal_Transit_Administration</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
   </si>
   <si>
-    <t>美國總統繼任順序</t>
+    <t>美国总统继任顺序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國司法部長</t>
+    <t>美国司法部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美國勞工部</t>
+    <t>美国劳工部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
@@ -311,31 +311,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國住房及城市發展部</t>
+    <t>美国住房及城市发展部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國郵政部</t>
+    <t>美国邮政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -389,9 +389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
   </si>
   <si>
-    <t>美国劳工部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2697,7 +2694,7 @@
         <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2781,10 +2778,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
         <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2839,10 +2836,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
         <v>127</v>
-      </c>
-      <c r="F70" t="s">
-        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2868,10 +2865,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
         <v>129</v>
-      </c>
-      <c r="F71" t="s">
-        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2897,10 +2894,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
         <v>131</v>
-      </c>
-      <c r="F72" t="s">
-        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -2926,10 +2923,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>133</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2955,10 +2952,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -2984,10 +2981,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>137</v>
-      </c>
-      <c r="F75" t="s">
-        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3013,10 +3010,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
         <v>139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3042,10 +3039,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" t="s">
-        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3071,10 +3068,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
-      </c>
-      <c r="F78" t="s">
-        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3100,10 +3097,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3129,10 +3126,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
         <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3158,10 +3155,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>7</v>
@@ -3187,10 +3184,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
